--- a/tutorial_projects/tutorial1/cassandra/work_bench.xlsx
+++ b/tutorial_projects/tutorial1/cassandra/work_bench.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_non_code_repos\cassandra_default_road_model\demo_projects\tutorial1\cassandra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_git_repos\aa_non_code_repos\cassandra_default_road_model\tutorial_projects\tutorial1\cassandra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC1E20-72F9-46C2-8483-86D926D6FBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11AFBB-887B-4F6A-83AF-F2A5EC2501F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="3945" windowWidth="26715" windowHeight="14865" activeTab="1" xr2:uid="{F33CB80A-C17C-4693-9A34-23528AD6A6D8}"/>
+    <workbookView xWindow="18780" yWindow="285" windowWidth="28530" windowHeight="19725" activeTab="2" xr2:uid="{F33CB80A-C17C-4693-9A34-23528AD6A6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="work_bench" sheetId="3" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20680C9E-AF2D-435F-9181-A8A225309D93}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D08AC8F-0671-41EB-9E3F-630F7D6750EE}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tutorial_projects/tutorial1/cassandra/work_bench.xlsx
+++ b/tutorial_projects/tutorial1/cassandra/work_bench.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_git_repos\aa_non_code_repos\cassandra_default_road_model\tutorial_projects\tutorial1\cassandra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11AFBB-887B-4F6A-83AF-F2A5EC2501F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7453E814-1CEC-4036-835A-A13E1CA66510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="285" windowWidth="28530" windowHeight="19725" activeTab="2" xr2:uid="{F33CB80A-C17C-4693-9A34-23528AD6A6D8}"/>
+    <workbookView xWindow="2730" yWindow="1155" windowWidth="37710" windowHeight="19725" xr2:uid="{F33CB80A-C17C-4693-9A34-23528AD6A6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="work_bench" sheetId="3" r:id="rId1"/>
@@ -709,8 +709,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFAEAF8"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331756F2-0E65-4F5B-A70B-205A2B7B7CE7}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D08AC8F-0671-41EB-9E3F-630F7D6750EE}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
